--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P9778\Прикладной статистический анализ\Lab1\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4EEDC-C3C0-411B-A132-83FBF8D77133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F447502-F1F2-4225-BECA-74B6E7AA24E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="10230" windowHeight="10920" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326C94F6-D704-45DA-85E4-22DAEA91DBD0}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>750</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>749</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>750</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>752</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>753</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>752</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>751</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>754</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>753</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>754</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>755</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>755</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>753</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>752</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>753</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>753</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>751</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>752</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>755</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>757</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>755</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>755</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>757</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>758</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>755</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>753</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>753</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>749</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>745</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>743</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>743</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>744</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>749</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>754</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>752</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>751</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>750</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>746</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>750</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>757</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>757</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>752</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>750</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>747</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>740</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>738</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>735</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>738</v>
+        <v>3120</v>
       </c>
     </row>
   </sheetData>
